--- a/data/pca/factorExposure/factorExposure_2011-08-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02274692916291337</v>
+        <v>-0.016572210173732</v>
       </c>
       <c r="C2">
-        <v>0.0007687793451743747</v>
+        <v>-0.0008222191819127953</v>
       </c>
       <c r="D2">
-        <v>0.06636235749626758</v>
+        <v>-0.03326689217334275</v>
       </c>
       <c r="E2">
-        <v>0.01839256346349753</v>
+        <v>0.01539187891408213</v>
       </c>
       <c r="F2">
-        <v>-0.009052601429463828</v>
+        <v>-0.01485510126566335</v>
       </c>
       <c r="G2">
-        <v>0.05087230739457577</v>
+        <v>-0.03190867648189932</v>
       </c>
       <c r="H2">
-        <v>0.02765380942406906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02012780120815046</v>
+      </c>
+      <c r="I2">
+        <v>0.03442029561172871</v>
+      </c>
+      <c r="J2">
+        <v>0.06883933692643678</v>
+      </c>
+      <c r="K2">
+        <v>-0.03307006520518099</v>
+      </c>
+      <c r="L2">
+        <v>0.04354343200602159</v>
+      </c>
+      <c r="M2">
+        <v>0.03475919344256915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06632847798671639</v>
+        <v>-0.09498378469549336</v>
       </c>
       <c r="C4">
-        <v>0.07136681379440241</v>
+        <v>0.07441892311952558</v>
       </c>
       <c r="D4">
-        <v>0.0247211593255339</v>
+        <v>-0.01712214005766182</v>
       </c>
       <c r="E4">
-        <v>0.0244333647538305</v>
+        <v>0.0629740895826591</v>
       </c>
       <c r="F4">
-        <v>0.04244285067900846</v>
+        <v>-0.06857861494367845</v>
       </c>
       <c r="G4">
-        <v>0.01657027555681852</v>
+        <v>-0.02061784827362974</v>
       </c>
       <c r="H4">
-        <v>-0.02912566560183579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.09710373504546269</v>
+      </c>
+      <c r="I4">
+        <v>-0.003730317421352651</v>
+      </c>
+      <c r="J4">
+        <v>-0.04439034645840315</v>
+      </c>
+      <c r="K4">
+        <v>0.05267376153280649</v>
+      </c>
+      <c r="L4">
+        <v>0.03434242605007492</v>
+      </c>
+      <c r="M4">
+        <v>0.03002345613234532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1270459521012057</v>
+        <v>-0.1315938765579919</v>
       </c>
       <c r="C6">
-        <v>0.05284209747869646</v>
+        <v>0.04879471809988164</v>
       </c>
       <c r="D6">
-        <v>0.06564277548939036</v>
+        <v>-0.03082689728184938</v>
       </c>
       <c r="E6">
-        <v>0.0638379565034936</v>
+        <v>0.003941192192420975</v>
       </c>
       <c r="F6">
-        <v>0.05833774570781528</v>
+        <v>-0.06038949045523553</v>
       </c>
       <c r="G6">
-        <v>-0.07202323719064899</v>
+        <v>0.1583597611638333</v>
       </c>
       <c r="H6">
-        <v>0.1197500929939062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.1239478384947954</v>
+      </c>
+      <c r="I6">
+        <v>0.3728875428208411</v>
+      </c>
+      <c r="J6">
+        <v>-0.2307973858384726</v>
+      </c>
+      <c r="K6">
+        <v>0.05104718602734076</v>
+      </c>
+      <c r="L6">
+        <v>-0.1112513314229935</v>
+      </c>
+      <c r="M6">
+        <v>-0.03594702736209938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06701977105383776</v>
+        <v>-0.06529335602472845</v>
       </c>
       <c r="C7">
-        <v>0.05368071779140494</v>
+        <v>0.0704424781337092</v>
       </c>
       <c r="D7">
-        <v>0.05669204788932034</v>
+        <v>-0.03744183010054394</v>
       </c>
       <c r="E7">
-        <v>0.01872438285720446</v>
+        <v>0.02321426654523526</v>
       </c>
       <c r="F7">
-        <v>0.04200854718338111</v>
+        <v>-0.007795657760346351</v>
       </c>
       <c r="G7">
-        <v>-0.03540840858990979</v>
+        <v>0.002252753215382887</v>
       </c>
       <c r="H7">
-        <v>-0.001801547511116189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.04982510501776961</v>
+      </c>
+      <c r="I7">
+        <v>-0.07752703500460061</v>
+      </c>
+      <c r="J7">
+        <v>0.02054878034504571</v>
+      </c>
+      <c r="K7">
+        <v>0.0300756187600451</v>
+      </c>
+      <c r="L7">
+        <v>0.04636692385247324</v>
+      </c>
+      <c r="M7">
+        <v>-0.08389379987642426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.0201980934480587</v>
+        <v>-0.03457627135798917</v>
       </c>
       <c r="C8">
-        <v>0.01686523471344368</v>
+        <v>0.008283335246725169</v>
       </c>
       <c r="D8">
-        <v>0.0380150685715545</v>
+        <v>-0.02595011280636965</v>
       </c>
       <c r="E8">
-        <v>0.07624164930888681</v>
+        <v>0.07254148186356871</v>
       </c>
       <c r="F8">
-        <v>0.00544533745536827</v>
+        <v>-0.07869452741937479</v>
       </c>
       <c r="G8">
-        <v>-0.008063409170807286</v>
+        <v>0.004867663245355954</v>
       </c>
       <c r="H8">
-        <v>0.03123361572023176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.08735955961186383</v>
+      </c>
+      <c r="I8">
+        <v>-0.01079336901856214</v>
+      </c>
+      <c r="J8">
+        <v>-0.04418101462396817</v>
+      </c>
+      <c r="K8">
+        <v>0.05086283628000296</v>
+      </c>
+      <c r="L8">
+        <v>0.001428265459558204</v>
+      </c>
+      <c r="M8">
+        <v>0.07626467552717728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.06959845037641119</v>
+        <v>-0.08239021765485646</v>
       </c>
       <c r="C9">
-        <v>0.08275529720377997</v>
+        <v>0.06839653700948994</v>
       </c>
       <c r="D9">
-        <v>0.0318399383133716</v>
+        <v>-0.01397186642290874</v>
       </c>
       <c r="E9">
-        <v>0.02674642909360058</v>
+        <v>0.04491430729220926</v>
       </c>
       <c r="F9">
-        <v>0.02476665755136151</v>
+        <v>-0.06993299882261907</v>
       </c>
       <c r="G9">
-        <v>0.02230441528813823</v>
+        <v>-0.01936016937869751</v>
       </c>
       <c r="H9">
-        <v>-0.02440515965895928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.1029281013173826</v>
+      </c>
+      <c r="I9">
+        <v>-0.007002199568341605</v>
+      </c>
+      <c r="J9">
+        <v>-0.01470023317724982</v>
+      </c>
+      <c r="K9">
+        <v>0.0280177454484216</v>
+      </c>
+      <c r="L9">
+        <v>0.006494817862725133</v>
+      </c>
+      <c r="M9">
+        <v>0.01359078149540895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.05915221885344795</v>
+        <v>-0.1090915722294888</v>
       </c>
       <c r="C10">
-        <v>-0.1327803190954923</v>
+        <v>-0.1661205436090166</v>
       </c>
       <c r="D10">
-        <v>0.05835664754916996</v>
+        <v>-0.03230572139729846</v>
       </c>
       <c r="E10">
-        <v>0.02526625390012528</v>
+        <v>0.03913086231086021</v>
       </c>
       <c r="F10">
-        <v>0.01900759261373024</v>
+        <v>0.037586975932351</v>
       </c>
       <c r="G10">
-        <v>-0.0504210624361346</v>
+        <v>0.01926884008751859</v>
       </c>
       <c r="H10">
-        <v>0.04596318791149596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.005290648668373644</v>
+      </c>
+      <c r="I10">
+        <v>-0.02765559872641828</v>
+      </c>
+      <c r="J10">
+        <v>0.04568184248570773</v>
+      </c>
+      <c r="K10">
+        <v>0.001398806511993603</v>
+      </c>
+      <c r="L10">
+        <v>-0.005215079882677142</v>
+      </c>
+      <c r="M10">
+        <v>-0.05395453158239068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06491462494382</v>
+        <v>-0.066475056956604</v>
       </c>
       <c r="C11">
-        <v>0.08967254979968893</v>
+        <v>0.06926393579831068</v>
       </c>
       <c r="D11">
-        <v>0.04355189049985387</v>
+        <v>-0.02229058255902635</v>
       </c>
       <c r="E11">
-        <v>0.006083363842527562</v>
+        <v>0.01980364399929068</v>
       </c>
       <c r="F11">
-        <v>-0.02752113370041706</v>
+        <v>-0.08409996010264041</v>
       </c>
       <c r="G11">
-        <v>0.02823662558414998</v>
+        <v>-0.01954250275457006</v>
       </c>
       <c r="H11">
-        <v>-0.02741900607006966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.06788854018931897</v>
+      </c>
+      <c r="I11">
+        <v>-0.074908158004553</v>
+      </c>
+      <c r="J11">
+        <v>0.08593403129761473</v>
+      </c>
+      <c r="K11">
+        <v>-0.01782853040026279</v>
+      </c>
+      <c r="L11">
+        <v>-0.04987393045280594</v>
+      </c>
+      <c r="M11">
+        <v>0.01926125831242989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05851370479045713</v>
+        <v>-0.06674565311401168</v>
       </c>
       <c r="C12">
-        <v>0.05307649538454223</v>
+        <v>0.05712663450650426</v>
       </c>
       <c r="D12">
-        <v>0.02192835774616092</v>
+        <v>-0.007920764631039433</v>
       </c>
       <c r="E12">
-        <v>0.01031900854422856</v>
+        <v>0.02487816027127051</v>
       </c>
       <c r="F12">
-        <v>0.01418187122098356</v>
+        <v>-0.08024115685939849</v>
       </c>
       <c r="G12">
-        <v>-0.01072468125262694</v>
+        <v>-0.01516383206755345</v>
       </c>
       <c r="H12">
-        <v>-0.03410396978423234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.07232248912183438</v>
+      </c>
+      <c r="I12">
+        <v>-0.06414715490869417</v>
+      </c>
+      <c r="J12">
+        <v>0.08854720723047026</v>
+      </c>
+      <c r="K12">
+        <v>0.04617200818504972</v>
+      </c>
+      <c r="L12">
+        <v>-0.06005249165502962</v>
+      </c>
+      <c r="M12">
+        <v>0.0343351408281656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05321257731775979</v>
+        <v>-0.05118462950727441</v>
       </c>
       <c r="C13">
-        <v>0.01942603793940543</v>
+        <v>0.03635679236670591</v>
       </c>
       <c r="D13">
-        <v>0.009943632658718336</v>
+        <v>-0.001713663148108833</v>
       </c>
       <c r="E13">
-        <v>0.023000230094516</v>
+        <v>0.03434164686445369</v>
       </c>
       <c r="F13">
-        <v>-0.0110066901207174</v>
+        <v>-0.03204377058294952</v>
       </c>
       <c r="G13">
-        <v>0.02551041852608566</v>
+        <v>-0.02306717154469449</v>
       </c>
       <c r="H13">
-        <v>-0.04324221446500802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.03754761383829067</v>
+      </c>
+      <c r="I13">
+        <v>-0.03662466497521229</v>
+      </c>
+      <c r="J13">
+        <v>-0.041539007360105</v>
+      </c>
+      <c r="K13">
+        <v>0.06176984754469637</v>
+      </c>
+      <c r="L13">
+        <v>0.006522072218346825</v>
+      </c>
+      <c r="M13">
+        <v>-0.009807749814459785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04288425382551619</v>
+        <v>-0.04607886198752366</v>
       </c>
       <c r="C14">
-        <v>0.01972654204720812</v>
+        <v>0.02668413486719379</v>
       </c>
       <c r="D14">
-        <v>0.01829080890317307</v>
+        <v>-0.01219593100008506</v>
       </c>
       <c r="E14">
-        <v>0.0110143405805048</v>
+        <v>0.01841526203090344</v>
       </c>
       <c r="F14">
-        <v>0.03808701639800624</v>
+        <v>-0.0478722903481333</v>
       </c>
       <c r="G14">
-        <v>0.003732186761033762</v>
+        <v>-0.04075531759925351</v>
       </c>
       <c r="H14">
-        <v>0.04098754378744514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.07398850234727772</v>
+      </c>
+      <c r="I14">
+        <v>-0.008227147178346201</v>
+      </c>
+      <c r="J14">
+        <v>-0.03863680206622608</v>
+      </c>
+      <c r="K14">
+        <v>0.008137746989398495</v>
+      </c>
+      <c r="L14">
+        <v>0.01496143344565637</v>
+      </c>
+      <c r="M14">
+        <v>-0.03738967743834515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03714399638330386</v>
+        <v>-0.03512524779467396</v>
       </c>
       <c r="C15">
-        <v>-0.003707663855684002</v>
+        <v>0.01410800480319576</v>
       </c>
       <c r="D15">
-        <v>-0.005826480191366279</v>
+        <v>0.01324805467204604</v>
       </c>
       <c r="E15">
-        <v>0.02581595677151058</v>
+        <v>0.01489318001841118</v>
       </c>
       <c r="F15">
-        <v>0.02626662558511917</v>
+        <v>-0.02243568843701472</v>
       </c>
       <c r="G15">
-        <v>0.001936446429481263</v>
+        <v>0.00326510387556549</v>
       </c>
       <c r="H15">
-        <v>-0.01836953021435741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04249778705801231</v>
+      </c>
+      <c r="I15">
+        <v>-0.01845192558428466</v>
+      </c>
+      <c r="J15">
+        <v>-0.05855043479515266</v>
+      </c>
+      <c r="K15">
+        <v>0.02357649787274731</v>
+      </c>
+      <c r="L15">
+        <v>0.01287525857250561</v>
+      </c>
+      <c r="M15">
+        <v>-0.01030330146459427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04823971105015644</v>
+        <v>-0.06782270651046515</v>
       </c>
       <c r="C16">
-        <v>0.0793187302479771</v>
+        <v>0.07481792707048832</v>
       </c>
       <c r="D16">
-        <v>0.02350602784793794</v>
+        <v>-0.0120328514434668</v>
       </c>
       <c r="E16">
-        <v>0.02335484894404032</v>
+        <v>0.03659573075866066</v>
       </c>
       <c r="F16">
-        <v>0.02394766021786477</v>
+        <v>-0.06742658913447395</v>
       </c>
       <c r="G16">
-        <v>0.02513121054518728</v>
+        <v>-0.01579069078136603</v>
       </c>
       <c r="H16">
-        <v>-0.01251075865386341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.08467085998203602</v>
+      </c>
+      <c r="I16">
+        <v>-0.06870454701800055</v>
+      </c>
+      <c r="J16">
+        <v>0.07113800872526353</v>
+      </c>
+      <c r="K16">
+        <v>-0.005877005386421957</v>
+      </c>
+      <c r="L16">
+        <v>-0.02852546608108266</v>
+      </c>
+      <c r="M16">
+        <v>0.01975085802066911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04042714448455427</v>
+        <v>-0.04448990737182162</v>
       </c>
       <c r="C20">
-        <v>0.04576285294053029</v>
+        <v>0.03723176396720444</v>
       </c>
       <c r="D20">
-        <v>0.02835851131414352</v>
+        <v>-0.02289636382083927</v>
       </c>
       <c r="E20">
-        <v>0.02483066604751762</v>
+        <v>0.01337469799034754</v>
       </c>
       <c r="F20">
-        <v>0.01815572244085196</v>
+        <v>-0.06045490062831065</v>
       </c>
       <c r="G20">
-        <v>0.02360711061164244</v>
+        <v>-0.03190048326161279</v>
       </c>
       <c r="H20">
-        <v>-0.03118582133039036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.09056201295186672</v>
+      </c>
+      <c r="I20">
+        <v>-0.03651050985724064</v>
+      </c>
+      <c r="J20">
+        <v>0.0378397145104279</v>
+      </c>
+      <c r="K20">
+        <v>0.06207460980525577</v>
+      </c>
+      <c r="L20">
+        <v>-0.004558740195069095</v>
+      </c>
+      <c r="M20">
+        <v>-0.01352924713879859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.0115256032415638</v>
+        <v>-0.02431163111116305</v>
       </c>
       <c r="C21">
-        <v>0.01394868825357168</v>
+        <v>0.0137849121634933</v>
       </c>
       <c r="D21">
-        <v>-0.01271195266712494</v>
+        <v>0.009245910395628996</v>
       </c>
       <c r="E21">
-        <v>0.07921436329118889</v>
+        <v>0.04150707840977332</v>
       </c>
       <c r="F21">
-        <v>0.004431042364543908</v>
+        <v>-0.03478664882901096</v>
       </c>
       <c r="G21">
-        <v>-0.08923158709785588</v>
+        <v>0.08217677037590697</v>
       </c>
       <c r="H21">
-        <v>-0.02157404297551748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.05756937468824389</v>
+      </c>
+      <c r="I21">
+        <v>-0.03587385245798365</v>
+      </c>
+      <c r="J21">
+        <v>-0.07781679047472689</v>
+      </c>
+      <c r="K21">
+        <v>0.06268722680310768</v>
+      </c>
+      <c r="L21">
+        <v>-0.03210387373444725</v>
+      </c>
+      <c r="M21">
+        <v>-0.0946313439080804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.03147016791378422</v>
+        <v>-0.05137851625056281</v>
       </c>
       <c r="C22">
-        <v>0.08149258009188129</v>
+        <v>0.07052804177234662</v>
       </c>
       <c r="D22">
-        <v>-0.1103800338078995</v>
+        <v>0.2757165450887804</v>
       </c>
       <c r="E22">
-        <v>0.3983624983608946</v>
+        <v>0.5222685995828868</v>
       </c>
       <c r="F22">
-        <v>0.2254312826814247</v>
+        <v>0.2909652250513292</v>
       </c>
       <c r="G22">
-        <v>0.02359691522574077</v>
+        <v>0.02480417142932797</v>
       </c>
       <c r="H22">
-        <v>-0.3061476452803776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1173555123338224</v>
+      </c>
+      <c r="I22">
+        <v>0.08041042219651985</v>
+      </c>
+      <c r="J22">
+        <v>0.008600816736770414</v>
+      </c>
+      <c r="K22">
+        <v>0.01804927264523234</v>
+      </c>
+      <c r="L22">
+        <v>0.100968279957703</v>
+      </c>
+      <c r="M22">
+        <v>-0.02743681729454532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.03234829945942502</v>
+        <v>-0.052109232174892</v>
       </c>
       <c r="C23">
-        <v>0.08036686943591215</v>
+        <v>0.07078397909968594</v>
       </c>
       <c r="D23">
-        <v>-0.109831907436927</v>
+        <v>0.2762981250978012</v>
       </c>
       <c r="E23">
-        <v>0.4000830254023268</v>
+        <v>0.5254736609192262</v>
       </c>
       <c r="F23">
-        <v>0.2234406913511307</v>
+        <v>0.2868555783817098</v>
       </c>
       <c r="G23">
-        <v>0.02232538730879858</v>
+        <v>0.02436400293140793</v>
       </c>
       <c r="H23">
-        <v>-0.3021116480367904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1168658488345656</v>
+      </c>
+      <c r="I23">
+        <v>0.08554949750264698</v>
+      </c>
+      <c r="J23">
+        <v>0.006978467854976074</v>
+      </c>
+      <c r="K23">
+        <v>0.01597123197497139</v>
+      </c>
+      <c r="L23">
+        <v>0.09967265609538357</v>
+      </c>
+      <c r="M23">
+        <v>-0.0270691041897069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07094924636060151</v>
+        <v>-0.07418210351069481</v>
       </c>
       <c r="C24">
-        <v>0.08214387156010175</v>
+        <v>0.0741247387549601</v>
       </c>
       <c r="D24">
-        <v>0.0409989190256408</v>
+        <v>-0.01143953249767523</v>
       </c>
       <c r="E24">
-        <v>0.0464085214744228</v>
+        <v>0.04178173346567408</v>
       </c>
       <c r="F24">
-        <v>-0.009141963102251146</v>
+        <v>-0.08115802502494814</v>
       </c>
       <c r="G24">
-        <v>0.01383973072163912</v>
+        <v>-0.01168153830641754</v>
       </c>
       <c r="H24">
-        <v>-0.01127110309731714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.0768377666035301</v>
+      </c>
+      <c r="I24">
+        <v>-0.04531458193515037</v>
+      </c>
+      <c r="J24">
+        <v>0.07613013626846608</v>
+      </c>
+      <c r="K24">
+        <v>0.008101291024579512</v>
+      </c>
+      <c r="L24">
+        <v>-0.04494547108437019</v>
+      </c>
+      <c r="M24">
+        <v>0.02266000403322389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06340483868691259</v>
+        <v>-0.0707642699663068</v>
       </c>
       <c r="C25">
-        <v>0.04322583819075021</v>
+        <v>0.04595424298402843</v>
       </c>
       <c r="D25">
-        <v>0.04211025967936601</v>
+        <v>-0.01888185378845196</v>
       </c>
       <c r="E25">
-        <v>0.04327114232840686</v>
+        <v>0.03468260768206896</v>
       </c>
       <c r="F25">
-        <v>0.01130199878770949</v>
+        <v>-0.07881256043735904</v>
       </c>
       <c r="G25">
-        <v>0.03454345782868299</v>
+        <v>-0.03670276843937754</v>
       </c>
       <c r="H25">
-        <v>0.009729268372007259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.09094788874796927</v>
+      </c>
+      <c r="I25">
+        <v>-0.03722772583537343</v>
+      </c>
+      <c r="J25">
+        <v>0.09713588322875244</v>
+      </c>
+      <c r="K25">
+        <v>-0.01046060987113911</v>
+      </c>
+      <c r="L25">
+        <v>-0.04518764603887199</v>
+      </c>
+      <c r="M25">
+        <v>0.0293905953506179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.038808602659554</v>
+        <v>-0.04012048903038294</v>
       </c>
       <c r="C26">
-        <v>0.02725214274625997</v>
+        <v>0.02491831816225664</v>
       </c>
       <c r="D26">
-        <v>0.03744815541365736</v>
+        <v>0.007568422463500511</v>
       </c>
       <c r="E26">
-        <v>-0.00059819087117608</v>
+        <v>0.02619031398358202</v>
       </c>
       <c r="F26">
-        <v>0.03334251101289384</v>
+        <v>-0.03271543974697116</v>
       </c>
       <c r="G26">
-        <v>-0.004919115722381988</v>
+        <v>-0.006100332575722091</v>
       </c>
       <c r="H26">
-        <v>-0.03627546580987819</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.05542263058930214</v>
+      </c>
+      <c r="I26">
+        <v>-0.06651833906921692</v>
+      </c>
+      <c r="J26">
+        <v>-0.1012842898575296</v>
+      </c>
+      <c r="K26">
+        <v>0.04852376616246362</v>
+      </c>
+      <c r="L26">
+        <v>0.03123853715084247</v>
+      </c>
+      <c r="M26">
+        <v>-0.1196702221888883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1169173016115281</v>
+        <v>-0.1409318894616023</v>
       </c>
       <c r="C28">
-        <v>-0.2916265311646213</v>
+        <v>-0.2868955896861595</v>
       </c>
       <c r="D28">
-        <v>0.05831090933179037</v>
+        <v>-0.01868786622391161</v>
       </c>
       <c r="E28">
-        <v>0.0001268200931207148</v>
+        <v>0.02956369174367963</v>
       </c>
       <c r="F28">
-        <v>0.03681636261694449</v>
+        <v>0.009846605455273116</v>
       </c>
       <c r="G28">
-        <v>-0.06453207333746101</v>
+        <v>0.03186376488301187</v>
       </c>
       <c r="H28">
-        <v>-0.003898326917799064</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.009690994122291866</v>
+      </c>
+      <c r="I28">
+        <v>-0.02052362133669538</v>
+      </c>
+      <c r="J28">
+        <v>-0.04754746905751012</v>
+      </c>
+      <c r="K28">
+        <v>-0.002133375131496773</v>
+      </c>
+      <c r="L28">
+        <v>0.01634452733379935</v>
+      </c>
+      <c r="M28">
+        <v>0.0492965958258081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04754600694214279</v>
+        <v>-0.045299412413402</v>
       </c>
       <c r="C29">
-        <v>0.007347321550627118</v>
+        <v>0.02210299574443884</v>
       </c>
       <c r="D29">
-        <v>0.0108024033613586</v>
+        <v>-0.01018197086915038</v>
       </c>
       <c r="E29">
-        <v>0.02962963814427559</v>
+        <v>0.02596043047665026</v>
       </c>
       <c r="F29">
-        <v>0.03896335928438345</v>
+        <v>-0.03927170626418956</v>
       </c>
       <c r="G29">
-        <v>0.01696872043724171</v>
+        <v>-0.04626601868534615</v>
       </c>
       <c r="H29">
-        <v>0.009743207689870474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.06169994435908147</v>
+      </c>
+      <c r="I29">
+        <v>-0.004300833133284207</v>
+      </c>
+      <c r="J29">
+        <v>-0.02067448413505982</v>
+      </c>
+      <c r="K29">
+        <v>0.007864579558796861</v>
+      </c>
+      <c r="L29">
+        <v>0.02045524268986203</v>
+      </c>
+      <c r="M29">
+        <v>-0.02473877557150786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1236188074127543</v>
+        <v>-0.1035527026445333</v>
       </c>
       <c r="C30">
-        <v>0.08889338477923969</v>
+        <v>0.06648180187462348</v>
       </c>
       <c r="D30">
-        <v>0.06835099995644962</v>
+        <v>-0.02042525955929856</v>
       </c>
       <c r="E30">
-        <v>0.0250433231466404</v>
+        <v>0.08131990509438086</v>
       </c>
       <c r="F30">
-        <v>0.06086371112553206</v>
+        <v>-0.1289416650334126</v>
       </c>
       <c r="G30">
-        <v>-0.0004420189071335623</v>
+        <v>0.02966146340723559</v>
       </c>
       <c r="H30">
-        <v>-0.0221284685473957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1919656515612141</v>
+      </c>
+      <c r="I30">
+        <v>-0.0119778486752067</v>
+      </c>
+      <c r="J30">
+        <v>0.06029815207055802</v>
+      </c>
+      <c r="K30">
+        <v>0.254358237788219</v>
+      </c>
+      <c r="L30">
+        <v>0.3093263077570264</v>
+      </c>
+      <c r="M30">
+        <v>0.197532360320633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04807975885848708</v>
+        <v>-0.0349449780820018</v>
       </c>
       <c r="C31">
-        <v>0.02298032872036699</v>
+        <v>0.04310072716539064</v>
       </c>
       <c r="D31">
-        <v>0.0005633919566335223</v>
+        <v>0.01133297970533358</v>
       </c>
       <c r="E31">
-        <v>-0.007945934046205314</v>
+        <v>0.006124729673664869</v>
       </c>
       <c r="F31">
-        <v>0.02022984241079386</v>
+        <v>-0.009963239428062981</v>
       </c>
       <c r="G31">
-        <v>0.02541995073047085</v>
+        <v>-0.05249720994802311</v>
       </c>
       <c r="H31">
-        <v>-0.03650583847718605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03520147956692888</v>
+      </c>
+      <c r="I31">
+        <v>-0.008202339568000424</v>
+      </c>
+      <c r="J31">
+        <v>-0.00422399251510072</v>
+      </c>
+      <c r="K31">
+        <v>0.02890580364342469</v>
+      </c>
+      <c r="L31">
+        <v>-0.01924231582485581</v>
+      </c>
+      <c r="M31">
+        <v>-0.00161573352582169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02368591194666654</v>
+        <v>-0.04686588424312825</v>
       </c>
       <c r="C32">
-        <v>-0.002666585776200778</v>
+        <v>-0.002457318950390137</v>
       </c>
       <c r="D32">
-        <v>-0.03198237038072951</v>
+        <v>0.02651310654217326</v>
       </c>
       <c r="E32">
-        <v>0.07622741902912568</v>
+        <v>0.06058178253876753</v>
       </c>
       <c r="F32">
-        <v>0.02280605549046714</v>
+        <v>-0.03069759713245876</v>
       </c>
       <c r="G32">
-        <v>0.01404665080348051</v>
+        <v>0.001250819404817142</v>
       </c>
       <c r="H32">
-        <v>-0.07659684112516825</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.01377995600947719</v>
+      </c>
+      <c r="I32">
+        <v>-0.06275574346651061</v>
+      </c>
+      <c r="J32">
+        <v>-0.08084201938455558</v>
+      </c>
+      <c r="K32">
+        <v>0.03967459728378767</v>
+      </c>
+      <c r="L32">
+        <v>0.09344255221997734</v>
+      </c>
+      <c r="M32">
+        <v>0.06329846730195021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.09421708146230098</v>
+        <v>-0.09849483051128616</v>
       </c>
       <c r="C33">
-        <v>0.05866647185492719</v>
+        <v>0.06693223630120616</v>
       </c>
       <c r="D33">
-        <v>0.0179536571747889</v>
+        <v>0.02206436888976127</v>
       </c>
       <c r="E33">
-        <v>-0.0009786574122077061</v>
+        <v>0.01739474213376795</v>
       </c>
       <c r="F33">
-        <v>0.01698155659835263</v>
+        <v>-0.05116159849076141</v>
       </c>
       <c r="G33">
-        <v>0.0356914211118932</v>
+        <v>-0.05031523403417296</v>
       </c>
       <c r="H33">
-        <v>-0.03590577976797731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.05995225944705136</v>
+      </c>
+      <c r="I33">
+        <v>-0.008518823557168022</v>
+      </c>
+      <c r="J33">
+        <v>-0.02659205963713364</v>
+      </c>
+      <c r="K33">
+        <v>0.03514889597723514</v>
+      </c>
+      <c r="L33">
+        <v>-0.0134314143365762</v>
+      </c>
+      <c r="M33">
+        <v>0.02471491827653822</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05436673672118069</v>
+        <v>-0.06190158968244448</v>
       </c>
       <c r="C34">
-        <v>0.07541293034585864</v>
+        <v>0.06008288244193366</v>
       </c>
       <c r="D34">
-        <v>0.02312584734426714</v>
+        <v>-0.009786705875998789</v>
       </c>
       <c r="E34">
-        <v>0.05038344251921748</v>
+        <v>0.02373188585207587</v>
       </c>
       <c r="F34">
-        <v>0.009726741764914634</v>
+        <v>-0.07212547352400103</v>
       </c>
       <c r="G34">
-        <v>0.01988282288958627</v>
+        <v>-0.03259781382794388</v>
       </c>
       <c r="H34">
-        <v>-0.005988358278197557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.07512004464091894</v>
+      </c>
+      <c r="I34">
+        <v>-0.03976094460027357</v>
+      </c>
+      <c r="J34">
+        <v>0.07052979082013938</v>
+      </c>
+      <c r="K34">
+        <v>0.0007904915483506846</v>
+      </c>
+      <c r="L34">
+        <v>-0.05519555863101252</v>
+      </c>
+      <c r="M34">
+        <v>0.01196134712485698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.03839197131801319</v>
+        <v>-0.03131055792206053</v>
       </c>
       <c r="C35">
-        <v>0.01916976101168759</v>
+        <v>0.02364110599744305</v>
       </c>
       <c r="D35">
-        <v>0.005608501625318311</v>
+        <v>0.002607148821383366</v>
       </c>
       <c r="E35">
-        <v>0.01763525266502165</v>
+        <v>0.003566855833673909</v>
       </c>
       <c r="F35">
-        <v>0.03971094523893894</v>
+        <v>-0.009576865630080256</v>
       </c>
       <c r="G35">
-        <v>0.03239608035522921</v>
+        <v>-0.02363555786332899</v>
       </c>
       <c r="H35">
-        <v>-0.04893952457907712</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.06484912522722255</v>
+      </c>
+      <c r="I35">
+        <v>-0.03576038379555867</v>
+      </c>
+      <c r="J35">
+        <v>0.03141151244790724</v>
+      </c>
+      <c r="K35">
+        <v>0.02540045730779089</v>
+      </c>
+      <c r="L35">
+        <v>0.01904420007935504</v>
+      </c>
+      <c r="M35">
+        <v>-0.02436593139467191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02802733773586606</v>
+        <v>-0.02931997389711744</v>
       </c>
       <c r="C36">
-        <v>0.01827785539760497</v>
+        <v>0.01628545324685495</v>
       </c>
       <c r="D36">
-        <v>0.02709903947852772</v>
+        <v>-0.003132631911181228</v>
       </c>
       <c r="E36">
-        <v>0.02630105313897797</v>
+        <v>0.03115297669521283</v>
       </c>
       <c r="F36">
-        <v>0.01393801113047173</v>
+        <v>-0.04079680871183578</v>
       </c>
       <c r="G36">
-        <v>0.0184716064705899</v>
+        <v>-0.02185701854965845</v>
       </c>
       <c r="H36">
-        <v>-0.01631754615490642</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.05891986380477301</v>
+      </c>
+      <c r="I36">
+        <v>-0.0183833227084536</v>
+      </c>
+      <c r="J36">
+        <v>-0.01453902084831418</v>
+      </c>
+      <c r="K36">
+        <v>0.03605315522815534</v>
+      </c>
+      <c r="L36">
+        <v>-0.01776296176882272</v>
+      </c>
+      <c r="M36">
+        <v>-0.05703322270489609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04030732144409949</v>
+        <v>-0.03453555249795454</v>
       </c>
       <c r="C38">
-        <v>0.0246464045768158</v>
+        <v>0.04877328871638881</v>
       </c>
       <c r="D38">
-        <v>-0.03197378008363853</v>
+        <v>0.008780057610729065</v>
       </c>
       <c r="E38">
-        <v>0.0572564028656436</v>
+        <v>0.02020096131526109</v>
       </c>
       <c r="F38">
-        <v>0.01005147918066011</v>
+        <v>0.03782495802526188</v>
       </c>
       <c r="G38">
-        <v>-0.0117406282760896</v>
+        <v>-0.01276118363431718</v>
       </c>
       <c r="H38">
-        <v>-0.04636109478977928</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.08867711100961498</v>
+      </c>
+      <c r="I38">
+        <v>-0.02592857708173063</v>
+      </c>
+      <c r="J38">
+        <v>-0.08613941495421881</v>
+      </c>
+      <c r="K38">
+        <v>-0.02311179823703674</v>
+      </c>
+      <c r="L38">
+        <v>0.07908910154345918</v>
+      </c>
+      <c r="M38">
+        <v>-0.07652078427280479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09271791064502431</v>
+        <v>-0.09208231325283003</v>
       </c>
       <c r="C39">
-        <v>0.09377266347745901</v>
+        <v>0.07590045204993845</v>
       </c>
       <c r="D39">
-        <v>0.01524256913160636</v>
+        <v>-0.002000162020483699</v>
       </c>
       <c r="E39">
-        <v>0.04535401875327131</v>
+        <v>0.04166347922129948</v>
       </c>
       <c r="F39">
-        <v>0.002774998133404278</v>
+        <v>-0.0743842909336264</v>
       </c>
       <c r="G39">
-        <v>0.006133774048806138</v>
+        <v>-0.0157675301396047</v>
       </c>
       <c r="H39">
-        <v>-0.01788192091194594</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.08411722807420551</v>
+      </c>
+      <c r="I39">
+        <v>-0.1104615951271497</v>
+      </c>
+      <c r="J39">
+        <v>0.1481819112695536</v>
+      </c>
+      <c r="K39">
+        <v>0.04849348921349107</v>
+      </c>
+      <c r="L39">
+        <v>0.07721351870836515</v>
+      </c>
+      <c r="M39">
+        <v>0.05789115658615682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.06318207875014142</v>
+        <v>-0.03904537873254948</v>
       </c>
       <c r="C40">
-        <v>0.02266997004643155</v>
+        <v>0.05548845365487959</v>
       </c>
       <c r="D40">
-        <v>-0.0224983296028261</v>
+        <v>0.04864479734771383</v>
       </c>
       <c r="E40">
-        <v>0.1825957954935835</v>
+        <v>0.06777995678523471</v>
       </c>
       <c r="F40">
-        <v>0.0773760478904381</v>
+        <v>-0.118705005359011</v>
       </c>
       <c r="G40">
-        <v>0.01718924808055922</v>
+        <v>0.05381619870481268</v>
       </c>
       <c r="H40">
-        <v>-0.03154478922589077</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.03398320999996368</v>
+      </c>
+      <c r="I40">
+        <v>-0.09677097605596018</v>
+      </c>
+      <c r="J40">
+        <v>0.02864237543267412</v>
+      </c>
+      <c r="K40">
+        <v>0.04653465388858301</v>
+      </c>
+      <c r="L40">
+        <v>0.08537482151343509</v>
+      </c>
+      <c r="M40">
+        <v>-0.1131426440480228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04575137037558526</v>
+        <v>-0.03757645021220928</v>
       </c>
       <c r="C41">
-        <v>0.04936199498215445</v>
+        <v>0.03630126027052708</v>
       </c>
       <c r="D41">
-        <v>-0.0006840342778900925</v>
+        <v>-0.01107082020070649</v>
       </c>
       <c r="E41">
-        <v>0.01050546514046718</v>
+        <v>-0.02107405910901601</v>
       </c>
       <c r="F41">
-        <v>0.01292414273000052</v>
+        <v>-0.03664371437551193</v>
       </c>
       <c r="G41">
-        <v>0.01441567745477559</v>
+        <v>-0.02506953360516955</v>
       </c>
       <c r="H41">
-        <v>-0.02324939344886478</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.006814643123999264</v>
+      </c>
+      <c r="I41">
+        <v>-0.04064354751771284</v>
+      </c>
+      <c r="J41">
+        <v>8.873331352522452e-05</v>
+      </c>
+      <c r="K41">
+        <v>0.01723684402946347</v>
+      </c>
+      <c r="L41">
+        <v>-0.0001055023197112639</v>
+      </c>
+      <c r="M41">
+        <v>0.01146894573318936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05673562547003876</v>
+        <v>-0.05360939764405032</v>
       </c>
       <c r="C43">
-        <v>0.04049119319727845</v>
+        <v>0.05155100065476798</v>
       </c>
       <c r="D43">
-        <v>0.02083522817146803</v>
+        <v>-0.008597120793860416</v>
       </c>
       <c r="E43">
-        <v>0.02721955232477737</v>
+        <v>0.02403667942586297</v>
       </c>
       <c r="F43">
-        <v>0.004151619896588797</v>
+        <v>-0.02133647693551374</v>
       </c>
       <c r="G43">
-        <v>-0.001593184338080072</v>
+        <v>-0.04722454433897701</v>
       </c>
       <c r="H43">
-        <v>-0.06606342960812517</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.002138675711748229</v>
+      </c>
+      <c r="I43">
+        <v>-0.02889539473450856</v>
+      </c>
+      <c r="J43">
+        <v>0.008735511564600056</v>
+      </c>
+      <c r="K43">
+        <v>0.01750984952229236</v>
+      </c>
+      <c r="L43">
+        <v>-0.03249327992171148</v>
+      </c>
+      <c r="M43">
+        <v>-0.007783922301181993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05242678551935646</v>
+        <v>-0.07963999539854971</v>
       </c>
       <c r="C44">
-        <v>0.02188839108230392</v>
+        <v>0.05456133490308802</v>
       </c>
       <c r="D44">
-        <v>0.07097609832408301</v>
+        <v>-0.04389496580884644</v>
       </c>
       <c r="E44">
-        <v>0.1281694982565637</v>
+        <v>0.1301698780028467</v>
       </c>
       <c r="F44">
-        <v>0.01757134911735111</v>
+        <v>-0.1224070994433347</v>
       </c>
       <c r="G44">
-        <v>0.01050314321176064</v>
+        <v>-0.04534810468206575</v>
       </c>
       <c r="H44">
-        <v>0.02696423009189909</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.1021257364989296</v>
+      </c>
+      <c r="I44">
+        <v>-0.07464396589514576</v>
+      </c>
+      <c r="J44">
+        <v>0.03430877020144118</v>
+      </c>
+      <c r="K44">
+        <v>0.01887451783475387</v>
+      </c>
+      <c r="L44">
+        <v>0.01610246065230989</v>
+      </c>
+      <c r="M44">
+        <v>-0.03644757620955694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,166 +2548,271 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01969948961559312</v>
+        <v>-0.04092611228199104</v>
       </c>
       <c r="C46">
-        <v>0.03134949200720727</v>
+        <v>0.04233247785138084</v>
       </c>
       <c r="D46">
-        <v>0.0145728529294968</v>
+        <v>-0.005040375938011547</v>
       </c>
       <c r="E46">
-        <v>0.05870476415388307</v>
+        <v>0.04436946923145321</v>
       </c>
       <c r="F46">
-        <v>0.02719114166459143</v>
+        <v>-0.01894859095810675</v>
       </c>
       <c r="G46">
-        <v>0.005561767041992675</v>
+        <v>-0.0218830905067322</v>
       </c>
       <c r="H46">
-        <v>0.005300496600033026</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.06515681508018963</v>
+      </c>
+      <c r="I46">
+        <v>-0.01783007513753216</v>
+      </c>
+      <c r="J46">
+        <v>-0.0583002822517398</v>
+      </c>
+      <c r="K46">
+        <v>0.01025032267591563</v>
+      </c>
+      <c r="L46">
+        <v>0.01220170708951334</v>
+      </c>
+      <c r="M46">
+        <v>-0.05089781334124786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.0294506802056875</v>
+        <v>-0.04455095874682063</v>
       </c>
       <c r="C47">
-        <v>-0.006901942981685402</v>
+        <v>0.02696086681894359</v>
       </c>
       <c r="D47">
-        <v>-4.387269051994053e-05</v>
+        <v>0.01503747605142574</v>
       </c>
       <c r="E47">
-        <v>0.06630552726536691</v>
+        <v>0.03282984433190097</v>
       </c>
       <c r="F47">
-        <v>0.03799542461707531</v>
+        <v>-0.01430575880685569</v>
       </c>
       <c r="G47">
-        <v>0.02808996280457837</v>
+        <v>-0.0337744644778083</v>
       </c>
       <c r="H47">
-        <v>-0.003694317956200757</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.03174618019882004</v>
+      </c>
+      <c r="I47">
+        <v>0.01971541666621139</v>
+      </c>
+      <c r="J47">
+        <v>-0.0001102380506774656</v>
+      </c>
+      <c r="K47">
+        <v>0.03020953233432874</v>
+      </c>
+      <c r="L47">
+        <v>-0.04131737959194386</v>
+      </c>
+      <c r="M47">
+        <v>-0.05588972143502335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03552628725224173</v>
+        <v>-0.04205968771682314</v>
       </c>
       <c r="C48">
-        <v>0.02247143743452679</v>
+        <v>0.01640932700786019</v>
       </c>
       <c r="D48">
-        <v>0.01170922176279764</v>
+        <v>0.01591641596604075</v>
       </c>
       <c r="E48">
-        <v>0.04290762537051267</v>
+        <v>0.03227377831543143</v>
       </c>
       <c r="F48">
-        <v>0.03771046851940051</v>
+        <v>-0.02372995633530004</v>
       </c>
       <c r="G48">
-        <v>0.0149455718461874</v>
+        <v>0.004326367048222668</v>
       </c>
       <c r="H48">
-        <v>-0.05229892558694852</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.0665208132960395</v>
+      </c>
+      <c r="I48">
+        <v>-0.02654805370357139</v>
+      </c>
+      <c r="J48">
+        <v>0.003270929297378061</v>
+      </c>
+      <c r="K48">
+        <v>0.06622068869878868</v>
+      </c>
+      <c r="L48">
+        <v>-0.007503010048085509</v>
+      </c>
+      <c r="M48">
+        <v>-0.05694671853263376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1850596111196229</v>
+        <v>-0.2218110874996088</v>
       </c>
       <c r="C49">
-        <v>0.125100743265626</v>
+        <v>0.08430902418622231</v>
       </c>
       <c r="D49">
-        <v>0.07240369988863862</v>
+        <v>-0.08664727920977355</v>
       </c>
       <c r="E49">
-        <v>-0.08987716706733746</v>
+        <v>-0.1042783788932277</v>
       </c>
       <c r="F49">
-        <v>0.04564272506331069</v>
+        <v>0.2028345941320415</v>
       </c>
       <c r="G49">
-        <v>-0.166587731397293</v>
+        <v>0.1875213072534746</v>
       </c>
       <c r="H49">
-        <v>0.07740746032404859</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.01774389320344508</v>
+      </c>
+      <c r="I49">
+        <v>-0.05895036346602198</v>
+      </c>
+      <c r="J49">
+        <v>0.1227673545529943</v>
+      </c>
+      <c r="K49">
+        <v>-0.1768136583573248</v>
+      </c>
+      <c r="L49">
+        <v>-0.03955453428354004</v>
+      </c>
+      <c r="M49">
+        <v>0.05005354760684178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05361743403803128</v>
+        <v>-0.0431696747542356</v>
       </c>
       <c r="C50">
-        <v>0.03212132559242582</v>
+        <v>0.04293565519023955</v>
       </c>
       <c r="D50">
-        <v>0.004982918914938154</v>
+        <v>0.01413096578384677</v>
       </c>
       <c r="E50">
-        <v>0.01292713069566667</v>
+        <v>0.007252069048886984</v>
       </c>
       <c r="F50">
-        <v>0.03844564126305727</v>
+        <v>-0.03357617353431561</v>
       </c>
       <c r="G50">
-        <v>0.05176502976605248</v>
+        <v>-0.05432755342541579</v>
       </c>
       <c r="H50">
-        <v>-0.002731881942093156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.04634246426916045</v>
+      </c>
+      <c r="I50">
+        <v>0.02670530775495524</v>
+      </c>
+      <c r="J50">
+        <v>-0.02276457783333834</v>
+      </c>
+      <c r="K50">
+        <v>0.01468451013829875</v>
+      </c>
+      <c r="L50">
+        <v>0.04364796378640774</v>
+      </c>
+      <c r="M50">
+        <v>-0.02667579376662987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02521418263495218</v>
+        <v>-0.03253908164606173</v>
       </c>
       <c r="C51">
-        <v>0.004225128460231643</v>
+        <v>0.005454479360569433</v>
       </c>
       <c r="D51">
-        <v>0.002040770660333512</v>
+        <v>-0.01921493195018146</v>
       </c>
       <c r="E51">
-        <v>0.02092826266759688</v>
+        <v>0.008651247800740515</v>
       </c>
       <c r="F51">
-        <v>0.001611791209155735</v>
+        <v>0.01746823781880576</v>
       </c>
       <c r="G51">
-        <v>-0.02054591820649553</v>
+        <v>0.01394170953389034</v>
       </c>
       <c r="H51">
-        <v>0.01978603350122803</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.02049275719088323</v>
+      </c>
+      <c r="I51">
+        <v>-0.007991258247976266</v>
+      </c>
+      <c r="J51">
+        <v>0.07185476776370037</v>
+      </c>
+      <c r="K51">
+        <v>-0.04117244794744896</v>
+      </c>
+      <c r="L51">
+        <v>-0.06804034961675876</v>
+      </c>
+      <c r="M51">
+        <v>0.03685907302343215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2055,114 +2835,189 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1658230577981165</v>
+        <v>-0.1535102016753173</v>
       </c>
       <c r="C53">
-        <v>0.02078719354239238</v>
+        <v>0.05257351211824135</v>
       </c>
       <c r="D53">
-        <v>0.03116072921449146</v>
+        <v>-0.01960764302733415</v>
       </c>
       <c r="E53">
-        <v>-0.05217777810181601</v>
+        <v>-0.05009266105839565</v>
       </c>
       <c r="F53">
-        <v>-0.09277281387610244</v>
+        <v>0.02893004789499313</v>
       </c>
       <c r="G53">
-        <v>0.2651263989012604</v>
+        <v>-0.2397718433254601</v>
       </c>
       <c r="H53">
-        <v>-0.03283543312724381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.07251462666957161</v>
+      </c>
+      <c r="I53">
+        <v>0.08099067918760805</v>
+      </c>
+      <c r="J53">
+        <v>-0.03815728261399987</v>
+      </c>
+      <c r="K53">
+        <v>-0.07875043368222477</v>
+      </c>
+      <c r="L53">
+        <v>0.07100614337945747</v>
+      </c>
+      <c r="M53">
+        <v>0.03128882823709722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05550324403654613</v>
+        <v>-0.05717070355690778</v>
       </c>
       <c r="C54">
-        <v>0.03871154302778804</v>
+        <v>0.0280992306334597</v>
       </c>
       <c r="D54">
-        <v>0.02910284405957349</v>
+        <v>0.005131356838470892</v>
       </c>
       <c r="E54">
-        <v>0.03815348204971745</v>
+        <v>0.04026044926719291</v>
       </c>
       <c r="F54">
-        <v>0.001682248949195173</v>
+        <v>-0.09510511947688752</v>
       </c>
       <c r="G54">
-        <v>0.001667728530456711</v>
+        <v>-0.03039048705833182</v>
       </c>
       <c r="H54">
-        <v>-0.02901232944715292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.08958899198056564</v>
+      </c>
+      <c r="I54">
+        <v>-0.01328120881652171</v>
+      </c>
+      <c r="J54">
+        <v>-0.05417724855255132</v>
+      </c>
+      <c r="K54">
+        <v>0.06009671607335415</v>
+      </c>
+      <c r="L54">
+        <v>0.008288622671070533</v>
+      </c>
+      <c r="M54">
+        <v>-0.05791283901583077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09398832481672463</v>
+        <v>-0.09121619367009008</v>
       </c>
       <c r="C55">
-        <v>0.006976619288439736</v>
+        <v>0.04130711059155889</v>
       </c>
       <c r="D55">
-        <v>0.02742470273495758</v>
+        <v>-0.02580439496622436</v>
       </c>
       <c r="E55">
-        <v>0.006042692499794893</v>
+        <v>-0.01644678156608601</v>
       </c>
       <c r="F55">
-        <v>-0.04300641990996295</v>
+        <v>-0.02817628097691742</v>
       </c>
       <c r="G55">
-        <v>0.2357629054308336</v>
+        <v>-0.172745965644302</v>
       </c>
       <c r="H55">
-        <v>-0.01247704319226852</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.004760449901320522</v>
+      </c>
+      <c r="I55">
+        <v>0.03946258761783056</v>
+      </c>
+      <c r="J55">
+        <v>-0.02244168535016833</v>
+      </c>
+      <c r="K55">
+        <v>-0.06907374703023361</v>
+      </c>
+      <c r="L55">
+        <v>0.0159569680048454</v>
+      </c>
+      <c r="M55">
+        <v>-0.01014782396619386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1708129837798173</v>
+        <v>-0.1462838569532941</v>
       </c>
       <c r="C56">
-        <v>0.02003555984579328</v>
+        <v>0.07074582404399408</v>
       </c>
       <c r="D56">
-        <v>0.06637641701714386</v>
+        <v>-0.02847436559473132</v>
       </c>
       <c r="E56">
-        <v>-0.05304025846477787</v>
+        <v>-0.02489838921316673</v>
       </c>
       <c r="F56">
-        <v>-0.1109596204130794</v>
+        <v>0.009507042428805875</v>
       </c>
       <c r="G56">
-        <v>0.218359994551382</v>
+        <v>-0.2437327165715368</v>
       </c>
       <c r="H56">
-        <v>-0.04396810995867552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1096392057269757</v>
+      </c>
+      <c r="I56">
+        <v>0.06427514225682833</v>
+      </c>
+      <c r="J56">
+        <v>-0.03908006834651759</v>
+      </c>
+      <c r="K56">
+        <v>-0.02879081264256885</v>
+      </c>
+      <c r="L56">
+        <v>0.0643665466498403</v>
+      </c>
+      <c r="M56">
+        <v>-0.008794837251100524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,998 +3040,1583 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.04826292626447066</v>
+        <v>-0.04159911557778564</v>
       </c>
       <c r="C58">
-        <v>0.03868428390357549</v>
+        <v>0.03489055471066988</v>
       </c>
       <c r="D58">
-        <v>0.05664176272967047</v>
+        <v>0.01894338152368496</v>
       </c>
       <c r="E58">
-        <v>0.2803424953522827</v>
+        <v>0.09561888120890537</v>
       </c>
       <c r="F58">
-        <v>0.2364522678613039</v>
+        <v>0.04060301722716712</v>
       </c>
       <c r="G58">
-        <v>-0.1277283757819901</v>
+        <v>0.09041143669994983</v>
       </c>
       <c r="H58">
-        <v>-0.008147946435127944</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.2234977573337023</v>
+      </c>
+      <c r="I58">
+        <v>0.07454566153930058</v>
+      </c>
+      <c r="J58">
+        <v>0.391580693347326</v>
+      </c>
+      <c r="K58">
+        <v>0.332585352169112</v>
+      </c>
+      <c r="L58">
+        <v>-0.2387756683775098</v>
+      </c>
+      <c r="M58">
+        <v>-0.0616490717096369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2489946230584915</v>
+        <v>-0.2286010654814034</v>
       </c>
       <c r="C59">
-        <v>-0.4139191196366854</v>
+        <v>-0.309048636073131</v>
       </c>
       <c r="D59">
-        <v>0.06093360806684218</v>
+        <v>-0.01371829485078536</v>
       </c>
       <c r="E59">
-        <v>0.05948402446562671</v>
+        <v>0.0001004928246226883</v>
       </c>
       <c r="F59">
-        <v>-0.06169084265108393</v>
+        <v>-0.02290121302307008</v>
       </c>
       <c r="G59">
-        <v>-0.00819706351111339</v>
+        <v>-0.06248804520253321</v>
       </c>
       <c r="H59">
-        <v>-0.009935158632596523</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.09506516384981975</v>
+      </c>
+      <c r="I59">
+        <v>-0.03322607565975332</v>
+      </c>
+      <c r="J59">
+        <v>0.01401348142286905</v>
+      </c>
+      <c r="K59">
+        <v>-0.02375716763039899</v>
+      </c>
+      <c r="L59">
+        <v>-0.03195640194508776</v>
+      </c>
+      <c r="M59">
+        <v>0.00443417616228613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2424791977146136</v>
+        <v>-0.2408722260429476</v>
       </c>
       <c r="C60">
-        <v>0.08538872655090451</v>
+        <v>0.1145995424660487</v>
       </c>
       <c r="D60">
-        <v>0.0874194004782482</v>
+        <v>-0.08375775348069786</v>
       </c>
       <c r="E60">
-        <v>-0.01485187630725871</v>
+        <v>-0.06797134373781584</v>
       </c>
       <c r="F60">
-        <v>0.008149281906358654</v>
+        <v>0.07252761419819138</v>
       </c>
       <c r="G60">
-        <v>-0.05871679080512546</v>
+        <v>0.07677100880924562</v>
       </c>
       <c r="H60">
-        <v>0.09688953611674726</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.09797353862306485</v>
+      </c>
+      <c r="I60">
+        <v>0.1768544427660179</v>
+      </c>
+      <c r="J60">
+        <v>0.001715311931372682</v>
+      </c>
+      <c r="K60">
+        <v>-0.07904475348086094</v>
+      </c>
+      <c r="L60">
+        <v>-0.03367483624695187</v>
+      </c>
+      <c r="M60">
+        <v>0.2042950918114889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.07814470661595065</v>
+        <v>-0.08496016098675166</v>
       </c>
       <c r="C61">
-        <v>0.05994712932727961</v>
+        <v>0.05717453824969387</v>
       </c>
       <c r="D61">
-        <v>0.01527633834775513</v>
+        <v>-0.01649133264618718</v>
       </c>
       <c r="E61">
-        <v>0.01309306805148273</v>
+        <v>0.02901548525516223</v>
       </c>
       <c r="F61">
-        <v>0.01533325036706504</v>
+        <v>-0.07649142416123332</v>
       </c>
       <c r="G61">
-        <v>0.01713353785200829</v>
+        <v>-0.05685086488122885</v>
       </c>
       <c r="H61">
-        <v>-0.02317221479836597</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.04731589723986272</v>
+      </c>
+      <c r="I61">
+        <v>-0.06870254651723259</v>
+      </c>
+      <c r="J61">
+        <v>0.0648043688194934</v>
+      </c>
+      <c r="K61">
+        <v>0.01685753809214252</v>
+      </c>
+      <c r="L61">
+        <v>0.03390295448193126</v>
+      </c>
+      <c r="M61">
+        <v>0.0236600716019768</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1607876105308327</v>
+        <v>-0.1451862451752923</v>
       </c>
       <c r="C62">
-        <v>0.04618548254264596</v>
+        <v>0.07484589692380712</v>
       </c>
       <c r="D62">
-        <v>0.01962501990015814</v>
+        <v>-0.009163079793199356</v>
       </c>
       <c r="E62">
-        <v>-0.100118703805325</v>
+        <v>-0.06815039142000616</v>
       </c>
       <c r="F62">
-        <v>-0.1132355623883367</v>
+        <v>-0.01643924831208747</v>
       </c>
       <c r="G62">
-        <v>0.2446078894180395</v>
+        <v>-0.2136498205983692</v>
       </c>
       <c r="H62">
-        <v>-0.02506862005531878</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.05924430984091985</v>
+      </c>
+      <c r="I62">
+        <v>0.08121881448237125</v>
+      </c>
+      <c r="J62">
+        <v>-0.08775301479909058</v>
+      </c>
+      <c r="K62">
+        <v>-0.07584491472242362</v>
+      </c>
+      <c r="L62">
+        <v>0.0783814151373026</v>
+      </c>
+      <c r="M62">
+        <v>-0.08003966109847035</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.04684249881722598</v>
+        <v>-0.044503989947334</v>
       </c>
       <c r="C63">
-        <v>0.05414252140844377</v>
+        <v>0.03057323736393042</v>
       </c>
       <c r="D63">
-        <v>0.01861809658727566</v>
+        <v>0.007742298876573865</v>
       </c>
       <c r="E63">
-        <v>0.009501631156605858</v>
+        <v>0.005987315585684445</v>
       </c>
       <c r="F63">
-        <v>0.003652483792809673</v>
+        <v>-0.05528106497019895</v>
       </c>
       <c r="G63">
-        <v>0.04006530317646561</v>
+        <v>-0.01366549533559882</v>
       </c>
       <c r="H63">
-        <v>0.01739140578670383</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.07513365278941597</v>
+      </c>
+      <c r="I63">
+        <v>0.009587593652460182</v>
+      </c>
+      <c r="J63">
+        <v>-0.00241117446670506</v>
+      </c>
+      <c r="K63">
+        <v>0.02086064970217612</v>
+      </c>
+      <c r="L63">
+        <v>0.01367949916162084</v>
+      </c>
+      <c r="M63">
+        <v>-0.02842904176638771</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1024836139726068</v>
+        <v>-0.101331099430056</v>
       </c>
       <c r="C64">
-        <v>0.03951958048916398</v>
+        <v>0.04805033776503122</v>
       </c>
       <c r="D64">
-        <v>0.03262148945648051</v>
+        <v>-0.02745363470450964</v>
       </c>
       <c r="E64">
-        <v>0.03294571544980676</v>
+        <v>0.03129081818883749</v>
       </c>
       <c r="F64">
-        <v>0.04776168755511123</v>
+        <v>-0.05135939830641404</v>
       </c>
       <c r="G64">
-        <v>-0.01123161210101591</v>
+        <v>0.01687014413415084</v>
       </c>
       <c r="H64">
-        <v>0.001796889340239664</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.05997269540873677</v>
+      </c>
+      <c r="I64">
+        <v>-0.01266454943197715</v>
+      </c>
+      <c r="J64">
+        <v>0.04046810884102117</v>
+      </c>
+      <c r="K64">
+        <v>-0.006730096237565638</v>
+      </c>
+      <c r="L64">
+        <v>0.09983707921685002</v>
+      </c>
+      <c r="M64">
+        <v>0.03318474249551112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1301482238454136</v>
+        <v>-0.1253093012383523</v>
       </c>
       <c r="C65">
-        <v>0.07275589996786992</v>
+        <v>0.04079428927277291</v>
       </c>
       <c r="D65">
-        <v>0.05453263790349759</v>
+        <v>-0.01188413226838764</v>
       </c>
       <c r="E65">
-        <v>0.05727386869240978</v>
+        <v>-0.01464119031147263</v>
       </c>
       <c r="F65">
-        <v>0.1509771525975441</v>
+        <v>-0.07076650402857904</v>
       </c>
       <c r="G65">
-        <v>-0.04842912938704252</v>
+        <v>0.1723716234955808</v>
       </c>
       <c r="H65">
-        <v>0.3110117685239601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.2192539149783134</v>
+      </c>
+      <c r="I65">
+        <v>0.5902155886330889</v>
+      </c>
+      <c r="J65">
+        <v>-0.2599771301980492</v>
+      </c>
+      <c r="K65">
+        <v>0.06402600813785177</v>
+      </c>
+      <c r="L65">
+        <v>-0.1409982497215553</v>
+      </c>
+      <c r="M65">
+        <v>-0.06026638452966136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1523115712070592</v>
+        <v>-0.126489492827872</v>
       </c>
       <c r="C66">
-        <v>0.1448902107820365</v>
+        <v>0.123716955756644</v>
       </c>
       <c r="D66">
-        <v>0.05024935751863895</v>
+        <v>-0.0006709053199155672</v>
       </c>
       <c r="E66">
-        <v>0.01822034790355901</v>
+        <v>0.03111306633177676</v>
       </c>
       <c r="F66">
-        <v>-0.006943956510077881</v>
+        <v>-0.09662612674242622</v>
       </c>
       <c r="G66">
-        <v>0.009199200160844257</v>
+        <v>-0.03443879338711155</v>
       </c>
       <c r="H66">
-        <v>-0.03783762402070053</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.07946768881321063</v>
+      </c>
+      <c r="I66">
+        <v>-0.1757587396548703</v>
+      </c>
+      <c r="J66">
+        <v>0.1521450454487775</v>
+      </c>
+      <c r="K66">
+        <v>0.01307541541738651</v>
+      </c>
+      <c r="L66">
+        <v>0.1397120095596877</v>
+      </c>
+      <c r="M66">
+        <v>0.1117584471824113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07242053636886708</v>
+        <v>-0.08406222818903684</v>
       </c>
       <c r="C67">
-        <v>0.04255875254689657</v>
+        <v>0.06805267046083341</v>
       </c>
       <c r="D67">
-        <v>0.002213305092359387</v>
+        <v>-0.01860991643033991</v>
       </c>
       <c r="E67">
-        <v>0.02148235246643259</v>
+        <v>0.03047525757370624</v>
       </c>
       <c r="F67">
-        <v>-0.006698858840373585</v>
+        <v>0.01818887208129454</v>
       </c>
       <c r="G67">
-        <v>-0.02999733588368994</v>
+        <v>-0.009312526767758537</v>
       </c>
       <c r="H67">
-        <v>-0.04513600497758075</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.1195222506155141</v>
+      </c>
+      <c r="I67">
+        <v>-0.03859768321954845</v>
+      </c>
+      <c r="J67">
+        <v>-0.0648968087284183</v>
+      </c>
+      <c r="K67">
+        <v>-0.05946023261302941</v>
+      </c>
+      <c r="L67">
+        <v>0.04203145027642643</v>
+      </c>
+      <c r="M67">
+        <v>-0.03482627206669676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1053344370896876</v>
+        <v>-0.1224476433841759</v>
       </c>
       <c r="C68">
-        <v>-0.2564172484139548</v>
+        <v>-0.2706343005299807</v>
       </c>
       <c r="D68">
-        <v>0.01561866697635763</v>
+        <v>0.01050386972854958</v>
       </c>
       <c r="E68">
-        <v>0.01794615866731296</v>
+        <v>0.03007042094966862</v>
       </c>
       <c r="F68">
-        <v>0.0138943990384158</v>
+        <v>0.008118750220025686</v>
       </c>
       <c r="G68">
-        <v>0.0276921103828807</v>
+        <v>-0.02762875151273403</v>
       </c>
       <c r="H68">
-        <v>-0.02748022072516573</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.02702615522831456</v>
+      </c>
+      <c r="I68">
+        <v>0.05294096372529836</v>
+      </c>
+      <c r="J68">
+        <v>-0.02456313369212996</v>
+      </c>
+      <c r="K68">
+        <v>0.03488457099404321</v>
+      </c>
+      <c r="L68">
+        <v>0.02774548247099561</v>
+      </c>
+      <c r="M68">
+        <v>-0.03062185220961141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04835147942002622</v>
+        <v>-0.04614504164109161</v>
       </c>
       <c r="C69">
-        <v>0.0245723723754916</v>
+        <v>0.02522972494065865</v>
       </c>
       <c r="D69">
-        <v>0.0122283700527576</v>
+        <v>0.009982244086814916</v>
       </c>
       <c r="E69">
-        <v>0.03055352265859026</v>
+        <v>0.007132520460924705</v>
       </c>
       <c r="F69">
-        <v>-0.0494349740171531</v>
+        <v>-0.02841154753614324</v>
       </c>
       <c r="G69">
-        <v>0.02521015263077946</v>
+        <v>-0.04013699837671802</v>
       </c>
       <c r="H69">
-        <v>0.009457350101537233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01303373061182863</v>
+      </c>
+      <c r="I69">
+        <v>0.0005256852547448562</v>
+      </c>
+      <c r="J69">
+        <v>0.01881568005348669</v>
+      </c>
+      <c r="K69">
+        <v>0.01689845070429351</v>
+      </c>
+      <c r="L69">
+        <v>-0.04751972370617035</v>
+      </c>
+      <c r="M69">
+        <v>-0.05513025247160241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.03097970615721935</v>
+        <v>-0.0548860504090661</v>
       </c>
       <c r="C70">
-        <v>0.01180131483058128</v>
+        <v>0.03504954099554279</v>
       </c>
       <c r="D70">
-        <v>-0.01254928089170773</v>
+        <v>-0.02066373217878325</v>
       </c>
       <c r="E70">
-        <v>0.006498049239831757</v>
+        <v>-0.0307554888647098</v>
       </c>
       <c r="F70">
-        <v>0.01603268003698909</v>
+        <v>-0.03143670134813263</v>
       </c>
       <c r="G70">
-        <v>-0.09820630273980883</v>
+        <v>0.038672724045107</v>
       </c>
       <c r="H70">
-        <v>-0.04588202841014807</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.06895160872489924</v>
+      </c>
+      <c r="I70">
+        <v>-0.1234841116578703</v>
+      </c>
+      <c r="J70">
+        <v>-0.1366837861201655</v>
+      </c>
+      <c r="K70">
+        <v>0.15590311539998</v>
+      </c>
+      <c r="L70">
+        <v>-0.06134676743635926</v>
+      </c>
+      <c r="M70">
+        <v>-0.05901251297578222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1125525484315867</v>
+        <v>-0.1368905133627414</v>
       </c>
       <c r="C71">
-        <v>-0.2755510233698668</v>
+        <v>-0.2808617870109174</v>
       </c>
       <c r="D71">
-        <v>0.04793687888286446</v>
+        <v>-0.01044191692980693</v>
       </c>
       <c r="E71">
-        <v>0.0115571508371221</v>
+        <v>0.03834263758895618</v>
       </c>
       <c r="F71">
-        <v>0.02001945739998409</v>
+        <v>0.002775181787980797</v>
       </c>
       <c r="G71">
-        <v>-0.004959796991834801</v>
+        <v>-0.01559360291779844</v>
       </c>
       <c r="H71">
-        <v>-0.03038696215188982</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02507013984789412</v>
+      </c>
+      <c r="I71">
+        <v>0.01262163971257544</v>
+      </c>
+      <c r="J71">
+        <v>-0.006202268294983153</v>
+      </c>
+      <c r="K71">
+        <v>-0.007427483520276376</v>
+      </c>
+      <c r="L71">
+        <v>0.005043795885506506</v>
+      </c>
+      <c r="M71">
+        <v>-0.006427295356003144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1850634740223153</v>
+        <v>-0.1414187938361762</v>
       </c>
       <c r="C72">
-        <v>0.02280439634489726</v>
+        <v>0.0345192691013424</v>
       </c>
       <c r="D72">
-        <v>-0.2237703211737717</v>
+        <v>0.1580696826107758</v>
       </c>
       <c r="E72">
-        <v>-0.01972930519646111</v>
+        <v>-0.09754482605680478</v>
       </c>
       <c r="F72">
-        <v>-0.01656467544041518</v>
+        <v>-0.1004088237830867</v>
       </c>
       <c r="G72">
-        <v>-0.003961646866660593</v>
+        <v>-0.01727558927122002</v>
       </c>
       <c r="H72">
-        <v>0.1433440776986419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.01625781033480184</v>
+      </c>
+      <c r="I72">
+        <v>0.1472664165270652</v>
+      </c>
+      <c r="J72">
+        <v>-0.02319292947283032</v>
+      </c>
+      <c r="K72">
+        <v>-0.06134454750136543</v>
+      </c>
+      <c r="L72">
+        <v>-0.02661279167663425</v>
+      </c>
+      <c r="M72">
+        <v>0.02810429294061028</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2639490878792415</v>
+        <v>-0.2346981801386247</v>
       </c>
       <c r="C73">
-        <v>0.1761556710791145</v>
+        <v>0.1582106204395991</v>
       </c>
       <c r="D73">
-        <v>0.1601611004259126</v>
+        <v>-0.1960880938874955</v>
       </c>
       <c r="E73">
-        <v>-0.1027116294910522</v>
+        <v>-0.1678849499218033</v>
       </c>
       <c r="F73">
-        <v>0.1439675292448361</v>
+        <v>0.3285662725209806</v>
       </c>
       <c r="G73">
-        <v>-0.1137605470802144</v>
+        <v>0.2552553147181941</v>
       </c>
       <c r="H73">
-        <v>0.170673103942753</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.0755036610369248</v>
+      </c>
+      <c r="I73">
+        <v>0.1098486431977261</v>
+      </c>
+      <c r="J73">
+        <v>0.4490442705151681</v>
+      </c>
+      <c r="K73">
+        <v>-0.2455877408604439</v>
+      </c>
+      <c r="L73">
+        <v>-0.01221735159322392</v>
+      </c>
+      <c r="M73">
+        <v>-0.1058000129200502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.08885272077201817</v>
+        <v>-0.08661825300893511</v>
       </c>
       <c r="C74">
-        <v>0.02387073092005351</v>
+        <v>0.06573802620676213</v>
       </c>
       <c r="D74">
-        <v>0.01910250195295895</v>
+        <v>-0.0092951490218505</v>
       </c>
       <c r="E74">
-        <v>-0.02134537820747102</v>
+        <v>-0.02128973398401659</v>
       </c>
       <c r="F74">
-        <v>0.01439155522705974</v>
+        <v>0.02263058332021434</v>
       </c>
       <c r="G74">
-        <v>0.1646437204484375</v>
+        <v>-0.1468832879646849</v>
       </c>
       <c r="H74">
-        <v>-0.004326259833996843</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.008245939335819087</v>
+      </c>
+      <c r="I74">
+        <v>0.03766949944321438</v>
+      </c>
+      <c r="J74">
+        <v>0.0374962084745916</v>
+      </c>
+      <c r="K74">
+        <v>-0.04739662479640615</v>
+      </c>
+      <c r="L74">
+        <v>0.02739835228963564</v>
+      </c>
+      <c r="M74">
+        <v>-0.06177532084335501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1006320989641285</v>
+        <v>-0.09046692827869061</v>
       </c>
       <c r="C75">
-        <v>0.02020862166260406</v>
+        <v>0.05027974672367862</v>
       </c>
       <c r="D75">
-        <v>0.02064405740107572</v>
+        <v>0.0004785028218726835</v>
       </c>
       <c r="E75">
-        <v>-0.01048983316955365</v>
+        <v>-0.01749335000781227</v>
       </c>
       <c r="F75">
-        <v>-0.09417989257389485</v>
+        <v>0.006878089635575873</v>
       </c>
       <c r="G75">
-        <v>0.09070640979529537</v>
+        <v>-0.1225280257417673</v>
       </c>
       <c r="H75">
-        <v>-0.03375023338318882</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.07548705333791822</v>
+      </c>
+      <c r="I75">
+        <v>0.01773746505923924</v>
+      </c>
+      <c r="J75">
+        <v>-0.01918088486322</v>
+      </c>
+      <c r="K75">
+        <v>0.02111662417109543</v>
+      </c>
+      <c r="L75">
+        <v>-0.06809474838190852</v>
+      </c>
+      <c r="M75">
+        <v>-0.03304435874487317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1333521328052237</v>
+        <v>-0.1050074050290904</v>
       </c>
       <c r="C76">
-        <v>0.03478323075149888</v>
+        <v>0.0742124035670496</v>
       </c>
       <c r="D76">
-        <v>0.02811250135675867</v>
+        <v>-0.02766351381767622</v>
       </c>
       <c r="E76">
-        <v>-0.01012553756360624</v>
+        <v>-0.02645590429164702</v>
       </c>
       <c r="F76">
-        <v>-0.07475099335178512</v>
+        <v>0.02361773730180317</v>
       </c>
       <c r="G76">
-        <v>0.2329564456806522</v>
+        <v>-0.2291978648945978</v>
       </c>
       <c r="H76">
-        <v>-0.01254605727130309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.05626987210343916</v>
+      </c>
+      <c r="I76">
+        <v>0.06592321170666456</v>
+      </c>
+      <c r="J76">
+        <v>-0.01556820296380882</v>
+      </c>
+      <c r="K76">
+        <v>-0.06731491436200372</v>
+      </c>
+      <c r="L76">
+        <v>0.09097963511417102</v>
+      </c>
+      <c r="M76">
+        <v>-0.03158961710416858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.08879380816481655</v>
+        <v>-0.07456690428119664</v>
       </c>
       <c r="C77">
-        <v>0.04994257048184574</v>
+        <v>0.02070641203478303</v>
       </c>
       <c r="D77">
-        <v>-0.04882151955278233</v>
+        <v>0.005180399774912289</v>
       </c>
       <c r="E77">
-        <v>0.4111686246325856</v>
+        <v>0.1439248419974039</v>
       </c>
       <c r="F77">
-        <v>-0.4433537911288001</v>
+        <v>-0.6101379354310843</v>
       </c>
       <c r="G77">
-        <v>-0.2071147567904486</v>
+        <v>0.3439038403445069</v>
       </c>
       <c r="H77">
-        <v>0.5073593145759056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.5111686069767537</v>
+      </c>
+      <c r="I77">
+        <v>0.08698545295369436</v>
+      </c>
+      <c r="J77">
+        <v>0.1030010062909606</v>
+      </c>
+      <c r="K77">
+        <v>-0.1522694156568803</v>
+      </c>
+      <c r="L77">
+        <v>0.1437057029271312</v>
+      </c>
+      <c r="M77">
+        <v>-0.02312572119068828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1222566413124774</v>
+        <v>-0.163996284132096</v>
       </c>
       <c r="C78">
-        <v>0.09690876283981824</v>
+        <v>0.1101467811576324</v>
       </c>
       <c r="D78">
-        <v>0.01917526332505885</v>
+        <v>0.004996299805576037</v>
       </c>
       <c r="E78">
-        <v>0.1034008432280904</v>
+        <v>0.2001330606100107</v>
       </c>
       <c r="F78">
-        <v>0.09585418200493025</v>
+        <v>-0.01665155736615133</v>
       </c>
       <c r="G78">
-        <v>-0.02170669957889252</v>
+        <v>0.07554494896035169</v>
       </c>
       <c r="H78">
-        <v>-0.04806069488394949</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.1464297738395386</v>
+      </c>
+      <c r="I78">
+        <v>-0.1554466022553421</v>
+      </c>
+      <c r="J78">
+        <v>-0.1855969679759403</v>
+      </c>
+      <c r="K78">
+        <v>-0.3236675591190183</v>
+      </c>
+      <c r="L78">
+        <v>-0.3064459221123707</v>
+      </c>
+      <c r="M78">
+        <v>0.5804555306033543</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1482370906762155</v>
+        <v>-0.1363730282527611</v>
       </c>
       <c r="C79">
-        <v>0.05795872989978169</v>
+        <v>0.0745751277698556</v>
       </c>
       <c r="D79">
-        <v>0.02630524506057602</v>
+        <v>-0.0108036026810187</v>
       </c>
       <c r="E79">
-        <v>-0.02740353857377946</v>
+        <v>-0.008158000726922536</v>
       </c>
       <c r="F79">
-        <v>-0.1076582042171368</v>
+        <v>-0.01896005598519156</v>
       </c>
       <c r="G79">
-        <v>0.1545568612702719</v>
+        <v>-0.1786542925175839</v>
       </c>
       <c r="H79">
-        <v>-0.04678165198174338</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.07223839281080159</v>
+      </c>
+      <c r="I79">
+        <v>0.06488406214386744</v>
+      </c>
+      <c r="J79">
+        <v>-0.04371214334924588</v>
+      </c>
+      <c r="K79">
+        <v>-0.02280113468885469</v>
+      </c>
+      <c r="L79">
+        <v>0.004697490054149476</v>
+      </c>
+      <c r="M79">
+        <v>-0.07507029251966073</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.01732532666960299</v>
+        <v>-0.03920234616741811</v>
       </c>
       <c r="C80">
-        <v>-0.007568457991141673</v>
+        <v>0.01254416407946673</v>
       </c>
       <c r="D80">
-        <v>-0.008773760173541544</v>
+        <v>-0.03662631069772702</v>
       </c>
       <c r="E80">
-        <v>-0.0005181464482661262</v>
+        <v>-0.06421205126133597</v>
       </c>
       <c r="F80">
-        <v>0.04444346965840239</v>
+        <v>-0.02273955813824</v>
       </c>
       <c r="G80">
-        <v>0.008582362565546453</v>
+        <v>0.01343617295599579</v>
       </c>
       <c r="H80">
-        <v>0.03877568106051418</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.107275498404798</v>
+      </c>
+      <c r="I80">
+        <v>-0.03995821597991266</v>
+      </c>
+      <c r="J80">
+        <v>0.01783874741441924</v>
+      </c>
+      <c r="K80">
+        <v>-0.01199941052658614</v>
+      </c>
+      <c r="L80">
+        <v>-0.04271949436298163</v>
+      </c>
+      <c r="M80">
+        <v>-0.04590010085762228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1218691519010543</v>
+        <v>-0.122605117445565</v>
       </c>
       <c r="C81">
-        <v>0.04330000335248867</v>
+        <v>0.05294355424734462</v>
       </c>
       <c r="D81">
-        <v>0.0376242519720822</v>
+        <v>-0.01220651881728645</v>
       </c>
       <c r="E81">
-        <v>-0.01896510678670553</v>
+        <v>-0.005936364522154798</v>
       </c>
       <c r="F81">
-        <v>-0.05714731923198854</v>
+        <v>-0.01613548150484581</v>
       </c>
       <c r="G81">
-        <v>0.09186626446379412</v>
+        <v>-0.1649186536689483</v>
       </c>
       <c r="H81">
-        <v>-0.005107087923457139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.03156414598259477</v>
+      </c>
+      <c r="I81">
+        <v>0.006316315035001216</v>
+      </c>
+      <c r="J81">
+        <v>0.03234863705907104</v>
+      </c>
+      <c r="K81">
+        <v>0.02952812677009018</v>
+      </c>
+      <c r="L81">
+        <v>0.002541563411956325</v>
+      </c>
+      <c r="M81">
+        <v>-0.0267962096678768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1177659147602677</v>
+        <v>-0.1183488620125648</v>
       </c>
       <c r="C82">
-        <v>0.05336870686846538</v>
+        <v>0.06008133102437044</v>
       </c>
       <c r="D82">
-        <v>0.06174494393848663</v>
+        <v>-0.01731581985839558</v>
       </c>
       <c r="E82">
-        <v>-0.04861972719316832</v>
+        <v>-0.02959466995487993</v>
       </c>
       <c r="F82">
-        <v>-0.1588494211622114</v>
+        <v>0.01171667829162101</v>
       </c>
       <c r="G82">
-        <v>0.2469593750158458</v>
+        <v>-0.2595942475768981</v>
       </c>
       <c r="H82">
-        <v>-0.08274588307544288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.08130928121773176</v>
+      </c>
+      <c r="I82">
+        <v>-0.03534173972851398</v>
+      </c>
+      <c r="J82">
+        <v>-0.01845258374358663</v>
+      </c>
+      <c r="K82">
+        <v>-0.0027101235235787</v>
+      </c>
+      <c r="L82">
+        <v>0.0465076995824896</v>
+      </c>
+      <c r="M82">
+        <v>-0.1482614358630863</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.04566249165009485</v>
+        <v>-0.07519455291791285</v>
       </c>
       <c r="C83">
-        <v>0.03390029609317639</v>
+        <v>0.05950077855943318</v>
       </c>
       <c r="D83">
-        <v>0.03249573439116268</v>
+        <v>-0.02928369071954741</v>
       </c>
       <c r="E83">
-        <v>-0.01804715523144444</v>
+        <v>0.005001471813905231</v>
       </c>
       <c r="F83">
-        <v>0.01740309504773704</v>
+        <v>-0.01343771922636641</v>
       </c>
       <c r="G83">
-        <v>-0.1090099443516434</v>
+        <v>0.04338599951975577</v>
       </c>
       <c r="H83">
-        <v>-0.0534670123982062</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.005041559739210086</v>
+      </c>
+      <c r="I83">
+        <v>-0.09142106977514447</v>
+      </c>
+      <c r="J83">
+        <v>-0.05109271697946347</v>
+      </c>
+      <c r="K83">
+        <v>0.07492114233560586</v>
+      </c>
+      <c r="L83">
+        <v>-0.0580621880716751</v>
+      </c>
+      <c r="M83">
+        <v>-0.04379453664893263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05311404877622447</v>
+        <v>-0.04116153387968733</v>
       </c>
       <c r="C84">
-        <v>0.02209423320800443</v>
+        <v>-0.02511130028974549</v>
       </c>
       <c r="D84">
-        <v>-0.0136234480957375</v>
+        <v>0.03379845100913492</v>
       </c>
       <c r="E84">
-        <v>-0.02736101162725766</v>
+        <v>0.01241600156155864</v>
       </c>
       <c r="F84">
-        <v>0.1074640832712531</v>
+        <v>0.05527106143701736</v>
       </c>
       <c r="G84">
-        <v>0.04085883246125858</v>
+        <v>0.1431203545834642</v>
       </c>
       <c r="H84">
-        <v>-0.08626734651056799</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.2110803518678624</v>
+      </c>
+      <c r="I84">
+        <v>-0.2536368217291803</v>
+      </c>
+      <c r="J84">
+        <v>-0.2175763823269353</v>
+      </c>
+      <c r="K84">
+        <v>-0.3592281604214503</v>
+      </c>
+      <c r="L84">
+        <v>0.1072199569882457</v>
+      </c>
+      <c r="M84">
+        <v>-0.3589903282003714</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07841619161818866</v>
+        <v>-0.1062566838821574</v>
       </c>
       <c r="C85">
-        <v>0.0447619176303231</v>
+        <v>0.05338098612968517</v>
       </c>
       <c r="D85">
-        <v>0.05934788529861718</v>
+        <v>-0.0477012573234583</v>
       </c>
       <c r="E85">
-        <v>-0.01027252458329708</v>
+        <v>0.001082479230258</v>
       </c>
       <c r="F85">
-        <v>-0.06903050592672418</v>
+        <v>-0.01070443470219373</v>
       </c>
       <c r="G85">
-        <v>0.1685428572799118</v>
+        <v>-0.1842719388726167</v>
       </c>
       <c r="H85">
-        <v>0.003496513471172085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.04615626122968413</v>
+      </c>
+      <c r="I85">
+        <v>0.05551745098988475</v>
+      </c>
+      <c r="J85">
+        <v>-0.03763069366350454</v>
+      </c>
+      <c r="K85">
+        <v>-0.04052109386015733</v>
+      </c>
+      <c r="L85">
+        <v>-0.004258243407187107</v>
+      </c>
+      <c r="M85">
+        <v>-0.03587101424679222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.03635939663076638</v>
+        <v>-0.06913550741035426</v>
       </c>
       <c r="C86">
-        <v>0.05126777496514159</v>
+        <v>0.02039058662755309</v>
       </c>
       <c r="D86">
-        <v>-0.01560252532914827</v>
+        <v>-0.001759064089667027</v>
       </c>
       <c r="E86">
-        <v>0.0436222293661727</v>
+        <v>0.05949524849960901</v>
       </c>
       <c r="F86">
-        <v>0.05228160301467587</v>
+        <v>0.007562502302488048</v>
       </c>
       <c r="G86">
-        <v>-0.04267368114085238</v>
+        <v>0.08631018339783361</v>
       </c>
       <c r="H86">
-        <v>0.07831197819909978</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.1024526520911559</v>
+      </c>
+      <c r="I86">
+        <v>-0.2376544995725089</v>
+      </c>
+      <c r="J86">
+        <v>-0.2598618144221033</v>
+      </c>
+      <c r="K86">
+        <v>-0.2730116239811581</v>
+      </c>
+      <c r="L86">
+        <v>-0.1575398169559382</v>
+      </c>
+      <c r="M86">
+        <v>-0.1063163909187439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09634146193525162</v>
+        <v>-0.1166259644118128</v>
       </c>
       <c r="C87">
-        <v>0.06465710094253656</v>
+        <v>0.06731506114079157</v>
       </c>
       <c r="D87">
-        <v>-0.005536279283988205</v>
+        <v>0.01299833969056079</v>
       </c>
       <c r="E87">
-        <v>0.1761637929778778</v>
+        <v>0.07722180301230709</v>
       </c>
       <c r="F87">
-        <v>-0.06007137653649877</v>
+        <v>-0.1793336675668379</v>
       </c>
       <c r="G87">
-        <v>-0.05784638190121445</v>
+        <v>0.1509822749648976</v>
       </c>
       <c r="H87">
-        <v>0.1232408937816982</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.0379722343829498</v>
+      </c>
+      <c r="I87">
+        <v>-0.02693610157078051</v>
+      </c>
+      <c r="J87">
+        <v>0.01479341583883939</v>
+      </c>
+      <c r="K87">
+        <v>-0.02038560105289785</v>
+      </c>
+      <c r="L87">
+        <v>0.09703264385700761</v>
+      </c>
+      <c r="M87">
+        <v>-0.1403706056165629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.0453259577476439</v>
+        <v>-0.0590440355927664</v>
       </c>
       <c r="C88">
-        <v>0.03873983860767718</v>
+        <v>0.05378560755530794</v>
       </c>
       <c r="D88">
-        <v>0.01664658609133135</v>
+        <v>-0.02695651225320039</v>
       </c>
       <c r="E88">
-        <v>0.005598814194777414</v>
+        <v>-0.01051413026698305</v>
       </c>
       <c r="F88">
-        <v>0.009732359231563662</v>
+        <v>-0.03330622832883635</v>
       </c>
       <c r="G88">
-        <v>-0.02286739264066308</v>
+        <v>-0.0196150342062472</v>
       </c>
       <c r="H88">
-        <v>-0.009611196463131348</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.04625758562926195</v>
+      </c>
+      <c r="I88">
+        <v>-0.03802591067501958</v>
+      </c>
+      <c r="J88">
+        <v>0.02974026397948454</v>
+      </c>
+      <c r="K88">
+        <v>0.01698969562249213</v>
+      </c>
+      <c r="L88">
+        <v>-0.00581936042253654</v>
+      </c>
+      <c r="M88">
+        <v>0.01198057778259286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1700899489126631</v>
+        <v>-0.2234179516531249</v>
       </c>
       <c r="C89">
-        <v>-0.3034595327845038</v>
+        <v>-0.3532067935268166</v>
       </c>
       <c r="D89">
-        <v>0.09109414685236274</v>
+        <v>-0.06014613426038128</v>
       </c>
       <c r="E89">
-        <v>0.08831161362109993</v>
+        <v>0.06687004100579336</v>
       </c>
       <c r="F89">
-        <v>0.01254875935950659</v>
+        <v>0.007179631891433252</v>
       </c>
       <c r="G89">
-        <v>-0.04126922745979031</v>
+        <v>-0.01031976273066433</v>
       </c>
       <c r="H89">
-        <v>-0.02962670834402616</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.01593977073487607</v>
+      </c>
+      <c r="I89">
+        <v>-0.04851551360763916</v>
+      </c>
+      <c r="J89">
+        <v>0.09454392462806814</v>
+      </c>
+      <c r="K89">
+        <v>0.0747219234227756</v>
+      </c>
+      <c r="L89">
+        <v>-0.05281326144352977</v>
+      </c>
+      <c r="M89">
+        <v>0.002408431165264277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1345364045476511</v>
+        <v>-0.1510901931011886</v>
       </c>
       <c r="C90">
-        <v>-0.2663176378628665</v>
+        <v>-0.2648307107874733</v>
       </c>
       <c r="D90">
-        <v>0.02691219725954497</v>
+        <v>-0.01022583466229017</v>
       </c>
       <c r="E90">
-        <v>0.06827272858785567</v>
+        <v>0.02726283536723289</v>
       </c>
       <c r="F90">
-        <v>0.0400014987044574</v>
+        <v>-0.01940632507568084</v>
       </c>
       <c r="G90">
-        <v>-0.03566740396902716</v>
+        <v>0.02714400336756399</v>
       </c>
       <c r="H90">
-        <v>-0.0007523792585719546</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.02765490752197752</v>
+      </c>
+      <c r="I90">
+        <v>0.001542916808575983</v>
+      </c>
+      <c r="J90">
+        <v>0.04602035158061075</v>
+      </c>
+      <c r="K90">
+        <v>-0.01148870853606291</v>
+      </c>
+      <c r="L90">
+        <v>0.03680030244815866</v>
+      </c>
+      <c r="M90">
+        <v>0.02931028119799732</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08519350370669408</v>
+        <v>-0.07509906746830396</v>
       </c>
       <c r="C91">
-        <v>0.0314750439366135</v>
+        <v>0.05344781475772888</v>
       </c>
       <c r="D91">
-        <v>0.01626324817808421</v>
+        <v>-0.005840920713033921</v>
       </c>
       <c r="E91">
-        <v>0.005556595225735118</v>
+        <v>-0.00203927343188667</v>
       </c>
       <c r="F91">
-        <v>-0.03645415183869575</v>
+        <v>0.01501052187680477</v>
       </c>
       <c r="G91">
-        <v>0.1032044995940642</v>
+        <v>-0.09179859758808465</v>
       </c>
       <c r="H91">
-        <v>-0.02109847838222316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.04863583969271286</v>
+      </c>
+      <c r="I91">
+        <v>0.02698961909831604</v>
+      </c>
+      <c r="J91">
+        <v>0.01627872204845851</v>
+      </c>
+      <c r="K91">
+        <v>-0.004329817329451529</v>
+      </c>
+      <c r="L91">
+        <v>-0.02446393109266507</v>
+      </c>
+      <c r="M91">
+        <v>-0.01446200430273386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.149760028247532</v>
+        <v>-0.1683959061653091</v>
       </c>
       <c r="C92">
-        <v>-0.3073084968996516</v>
+        <v>-0.3019542487388001</v>
       </c>
       <c r="D92">
-        <v>0.06962124724764682</v>
+        <v>-0.01943086959934873</v>
       </c>
       <c r="E92">
-        <v>0.01868887273244258</v>
+        <v>0.0482309386803869</v>
       </c>
       <c r="F92">
-        <v>0.06696101267673477</v>
+        <v>0.01736067937194235</v>
       </c>
       <c r="G92">
-        <v>-0.0001036133796074722</v>
+        <v>-0.03848406748857897</v>
       </c>
       <c r="H92">
-        <v>-0.0651924224804068</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.0307224203761161</v>
+      </c>
+      <c r="I92">
+        <v>-0.024892812812334</v>
+      </c>
+      <c r="J92">
+        <v>0.03836650578970059</v>
+      </c>
+      <c r="K92">
+        <v>0.01485334495734821</v>
+      </c>
+      <c r="L92">
+        <v>-0.001219414711644367</v>
+      </c>
+      <c r="M92">
+        <v>0.02201059848606954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1381566258816824</v>
+        <v>-0.1651961052976602</v>
       </c>
       <c r="C93">
-        <v>-0.2466804514439831</v>
+        <v>-0.2870282177246816</v>
       </c>
       <c r="D93">
-        <v>0.03350849669963938</v>
+        <v>-0.008631271282021374</v>
       </c>
       <c r="E93">
-        <v>0.02246024455629917</v>
+        <v>0.008944424662147373</v>
       </c>
       <c r="F93">
-        <v>0.03102888878421485</v>
+        <v>0.009290487424817801</v>
       </c>
       <c r="G93">
-        <v>-0.05716136600528755</v>
+        <v>0.01468178210366694</v>
       </c>
       <c r="H93">
-        <v>-0.008711473091310814</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.01343802645251033</v>
+      </c>
+      <c r="I93">
+        <v>-0.01301736409198778</v>
+      </c>
+      <c r="J93">
+        <v>-0.02548148908080557</v>
+      </c>
+      <c r="K93">
+        <v>0.01483093052234038</v>
+      </c>
+      <c r="L93">
+        <v>0.02366130510654642</v>
+      </c>
+      <c r="M93">
+        <v>-0.01556710158658382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08451513003720255</v>
+        <v>-0.1038852519818224</v>
       </c>
       <c r="C94">
-        <v>0.06207444724181536</v>
+        <v>0.07739536012237909</v>
       </c>
       <c r="D94">
-        <v>0.02645901614630207</v>
+        <v>-0.02226530313684173</v>
       </c>
       <c r="E94">
-        <v>0.009422627265212157</v>
+        <v>0.01036249930188311</v>
       </c>
       <c r="F94">
-        <v>-0.06248319228092643</v>
+        <v>0.0477509742550255</v>
       </c>
       <c r="G94">
-        <v>0.1325220928928211</v>
+        <v>-0.1250810117507291</v>
       </c>
       <c r="H94">
-        <v>-0.06121767572450942</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.03977442443415052</v>
+      </c>
+      <c r="I94">
+        <v>0.02590978417560333</v>
+      </c>
+      <c r="J94">
+        <v>-0.002165432680040278</v>
+      </c>
+      <c r="K94">
+        <v>0.02736329450372027</v>
+      </c>
+      <c r="L94">
+        <v>-0.05906853191884731</v>
+      </c>
+      <c r="M94">
+        <v>-0.05939252768445798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.101425661529643</v>
+        <v>-0.1314694433107941</v>
       </c>
       <c r="C95">
-        <v>0.11723797579565</v>
+        <v>0.07633545134060397</v>
       </c>
       <c r="D95">
-        <v>0.08749955388229538</v>
+        <v>-0.03471134823936884</v>
       </c>
       <c r="E95">
-        <v>0.005959491336303341</v>
+        <v>0.06630245758488067</v>
       </c>
       <c r="F95">
-        <v>0.0465767034410481</v>
+        <v>-0.01479257309837656</v>
       </c>
       <c r="G95">
-        <v>-0.01920856857165334</v>
+        <v>0.1627372630000729</v>
       </c>
       <c r="H95">
-        <v>0.05382682962391602</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1214013475408244</v>
+      </c>
+      <c r="I95">
+        <v>-0.0473490099061027</v>
+      </c>
+      <c r="J95">
+        <v>0.03431249365416745</v>
+      </c>
+      <c r="K95">
+        <v>0.0127740784074862</v>
+      </c>
+      <c r="L95">
+        <v>-0.1268958267677874</v>
+      </c>
+      <c r="M95">
+        <v>-0.4497323940273401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3199,88 +4639,148 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.3120051300308144</v>
+        <v>-0.1789746525856113</v>
       </c>
       <c r="C97">
-        <v>-0.009104304243864523</v>
+        <v>0.008282093881962466</v>
       </c>
       <c r="D97">
-        <v>-0.8625525193857044</v>
+        <v>0.8477738920011326</v>
       </c>
       <c r="E97">
-        <v>-0.1797507189479686</v>
+        <v>-0.4040916875500062</v>
       </c>
       <c r="F97">
-        <v>0.07335199489248777</v>
+        <v>-0.04085701548634992</v>
       </c>
       <c r="G97">
-        <v>-0.0407586228606279</v>
+        <v>0.06048049366181477</v>
       </c>
       <c r="H97">
-        <v>0.04086795288439821</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.04542460866576025</v>
+      </c>
+      <c r="I97">
+        <v>-0.05484569864587147</v>
+      </c>
+      <c r="J97">
+        <v>0.07602455150313624</v>
+      </c>
+      <c r="K97">
+        <v>-0.007455392181970761</v>
+      </c>
+      <c r="L97">
+        <v>-0.02506442404187243</v>
+      </c>
+      <c r="M97">
+        <v>0.02866955398126072</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2454991639352632</v>
+        <v>-0.256852160723046</v>
       </c>
       <c r="C98">
-        <v>0.1258577582226763</v>
+        <v>0.1327306110180829</v>
       </c>
       <c r="D98">
-        <v>0.1732434397174958</v>
+        <v>-0.1260653435896157</v>
       </c>
       <c r="E98">
-        <v>-0.4110537821636951</v>
+        <v>-0.2233604431012342</v>
       </c>
       <c r="F98">
-        <v>0.06424395133174227</v>
+        <v>0.2765002642949027</v>
       </c>
       <c r="G98">
-        <v>-0.4978697819430877</v>
+        <v>0.3080306152776691</v>
       </c>
       <c r="H98">
-        <v>-0.2497199903852177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.1863132347724797</v>
+      </c>
+      <c r="I98">
+        <v>-0.2156930123539016</v>
+      </c>
+      <c r="J98">
+        <v>-0.3381074308324475</v>
+      </c>
+      <c r="K98">
+        <v>0.4421995066251393</v>
+      </c>
+      <c r="L98">
+        <v>0.2607951805633485</v>
+      </c>
+      <c r="M98">
+        <v>0.1194545414946129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.0735666383611131</v>
+        <v>-0.07801316511348612</v>
       </c>
       <c r="C99">
-        <v>0.0623594012744464</v>
+        <v>0.06242525434001562</v>
       </c>
       <c r="D99">
-        <v>-0.05815861993487283</v>
+        <v>0.0200595004409918</v>
       </c>
       <c r="E99">
-        <v>0.1406148636615717</v>
+        <v>0.05323151591672915</v>
       </c>
       <c r="F99">
-        <v>-0.6372241710696744</v>
+        <v>-0.03985396381994954</v>
       </c>
       <c r="G99">
-        <v>-0.3035272370760935</v>
+        <v>-0.05883746039906749</v>
       </c>
       <c r="H99">
-        <v>-0.4559246776644441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.3821529155250148</v>
+      </c>
+      <c r="I99">
+        <v>-0.1955003655411075</v>
+      </c>
+      <c r="J99">
+        <v>-0.06221460310300386</v>
+      </c>
+      <c r="K99">
+        <v>0.2615938500996756</v>
+      </c>
+      <c r="L99">
+        <v>-0.631053950528677</v>
+      </c>
+      <c r="M99">
+        <v>-0.08443146702135849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.04752002295625986</v>
+        <v>-0.04538322083346698</v>
       </c>
       <c r="C101">
-        <v>0.008010035515362651</v>
+        <v>0.02205000629106661</v>
       </c>
       <c r="D101">
-        <v>0.01208749042026809</v>
+        <v>-0.01172545687544448</v>
       </c>
       <c r="E101">
-        <v>0.02816900928454392</v>
+        <v>0.02599560175726163</v>
       </c>
       <c r="F101">
-        <v>0.03903758101163803</v>
+        <v>-0.03783866507500679</v>
       </c>
       <c r="G101">
-        <v>0.01565788159259427</v>
+        <v>-0.04666470034120986</v>
       </c>
       <c r="H101">
-        <v>0.008726802362351528</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.0606688251511434</v>
+      </c>
+      <c r="I101">
+        <v>-0.005689814281910787</v>
+      </c>
+      <c r="J101">
+        <v>-0.01898665659374</v>
+      </c>
+      <c r="K101">
+        <v>0.004524570972424436</v>
+      </c>
+      <c r="L101">
+        <v>0.02081174866578326</v>
+      </c>
+      <c r="M101">
+        <v>-0.02098856200169114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
